--- a/output/cooc_nlp_crossValid.xlsx
+++ b/output/cooc_nlp_crossValid.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1108032196764444</v>
+        <v>0.8891967803235556</v>
       </c>
       <c r="D2">
-        <v>0.09446707970288731</v>
+        <v>0.9055329202971127</v>
       </c>
       <c r="E2">
-        <v>0.01956254241693767</v>
+        <v>0.9804374575830623</v>
       </c>
       <c r="F2">
-        <v>0.02964585807536208</v>
+        <v>0.9703541419246379</v>
       </c>
       <c r="G2">
-        <v>0.04017087007589609</v>
+        <v>0.959829129924104</v>
       </c>
       <c r="H2">
-        <v>0.05003973575996431</v>
+        <v>0.9499602642400357</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1108032196764444</v>
+        <v>0.8891967803235556</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.124671961322111</v>
+        <v>0.875328038677889</v>
       </c>
       <c r="E3">
-        <v>0.02189330424219897</v>
+        <v>0.9781066957578011</v>
       </c>
       <c r="F3">
-        <v>0.04173466467630537</v>
+        <v>0.9582653353236946</v>
       </c>
       <c r="G3">
-        <v>0.0004553734061930783</v>
+        <v>0.9995446265938069</v>
       </c>
       <c r="H3">
-        <v>0.1114107448998216</v>
+        <v>0.8885892551001784</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09446707970288731</v>
+        <v>0.9055329202971127</v>
       </c>
       <c r="C4">
-        <v>0.124671961322111</v>
+        <v>0.875328038677889</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
-        <v>0.03547041304011841</v>
+        <v>0.9645295869598816</v>
       </c>
       <c r="G4">
-        <v>0.0002579979360165118</v>
+        <v>0.9997420020639834</v>
       </c>
       <c r="H4">
-        <v>0.117420824480639</v>
+        <v>0.8825791755193609</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01956254241693767</v>
+        <v>0.9804374575830623</v>
       </c>
       <c r="C5">
-        <v>0.02189330424219897</v>
+        <v>0.9781066957578011</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.01346409356032294</v>
+        <v>0.986535906439677</v>
       </c>
       <c r="G5">
-        <v>0.003787878787878788</v>
+        <v>0.9962121212121212</v>
       </c>
       <c r="H5">
-        <v>0.0426602026144021</v>
+        <v>0.9573397973855979</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02964585807536208</v>
+        <v>0.9703541419246379</v>
       </c>
       <c r="C6">
-        <v>0.04173466467630537</v>
+        <v>0.9582653353236946</v>
       </c>
       <c r="D6">
-        <v>0.03547041304011841</v>
+        <v>0.9645295869598816</v>
       </c>
       <c r="E6">
-        <v>0.01346409356032294</v>
+        <v>0.986535906439677</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>0.02487639490014739</v>
+        <v>0.9751236050998526</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04017087007589609</v>
+        <v>0.959829129924104</v>
       </c>
       <c r="C7">
-        <v>0.0004553734061930783</v>
+        <v>0.9995446265938069</v>
       </c>
       <c r="D7">
-        <v>0.0002579979360165118</v>
+        <v>0.9997420020639834</v>
       </c>
       <c r="E7">
-        <v>0.003787878787878788</v>
+        <v>0.9962121212121212</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4.782629489693433e-05</v>
+        <v>0.999952173705103</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05003973575996431</v>
+        <v>0.9499602642400357</v>
       </c>
       <c r="C8">
-        <v>0.1114107448998216</v>
+        <v>0.8885892551001784</v>
       </c>
       <c r="D8">
-        <v>0.117420824480639</v>
+        <v>0.8825791755193609</v>
       </c>
       <c r="E8">
-        <v>0.0426602026144021</v>
+        <v>0.9573397973855979</v>
       </c>
       <c r="F8">
-        <v>0.02487639490014739</v>
+        <v>0.9751236050998526</v>
       </c>
       <c r="G8">
-        <v>4.782629489693433e-05</v>
+        <v>0.999952173705103</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/cooc_nlp_crossValid.xlsx
+++ b/output/cooc_nlp_crossValid.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8891967803235556</v>
+        <v>0.8891967803235555</v>
       </c>
       <c r="D2">
-        <v>0.9055329202971127</v>
+        <v>0.9055329202971123</v>
       </c>
       <c r="E2">
         <v>0.9804374575830623</v>
@@ -441,7 +441,7 @@
         <v>0.9703541419246379</v>
       </c>
       <c r="G2">
-        <v>0.959829129924104</v>
+        <v>0.9598291299241039</v>
       </c>
       <c r="H2">
         <v>0.9499602642400357</v>
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8891967803235556</v>
+        <v>0.8891967803235555</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.875328038677889</v>
+        <v>0.8753280386778888</v>
       </c>
       <c r="E3">
-        <v>0.9781066957578011</v>
+        <v>0.9781066957578012</v>
       </c>
       <c r="F3">
-        <v>0.9582653353236946</v>
+        <v>0.9582653353236945</v>
       </c>
       <c r="G3">
-        <v>0.9995446265938069</v>
+        <v>0.9995446265938068</v>
       </c>
       <c r="H3">
-        <v>0.8885892551001784</v>
+        <v>0.8885892551001782</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9055329202971127</v>
+        <v>0.9055329202971123</v>
       </c>
       <c r="C4">
-        <v>0.875328038677889</v>
+        <v>0.8753280386778888</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -490,13 +490,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.9645295869598816</v>
+        <v>0.9645295869598814</v>
       </c>
       <c r="G4">
         <v>0.9997420020639834</v>
       </c>
       <c r="H4">
-        <v>0.8825791755193609</v>
+        <v>0.8825791755193606</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -507,7 +507,7 @@
         <v>0.9804374575830623</v>
       </c>
       <c r="C5">
-        <v>0.9781066957578011</v>
+        <v>0.9781066957578012</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -519,10 +519,10 @@
         <v>0.986535906439677</v>
       </c>
       <c r="G5">
-        <v>0.9962121212121212</v>
+        <v>0.9962121212121211</v>
       </c>
       <c r="H5">
-        <v>0.9573397973855979</v>
+        <v>0.9573397973855978</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -533,10 +533,10 @@
         <v>0.9703541419246379</v>
       </c>
       <c r="C6">
-        <v>0.9582653353236946</v>
+        <v>0.9582653353236945</v>
       </c>
       <c r="D6">
-        <v>0.9645295869598816</v>
+        <v>0.9645295869598814</v>
       </c>
       <c r="E6">
         <v>0.986535906439677</v>
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.9751236050998526</v>
+        <v>0.9751236050998527</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,16 +556,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.959829129924104</v>
+        <v>0.9598291299241039</v>
       </c>
       <c r="C7">
-        <v>0.9995446265938069</v>
+        <v>0.9995446265938068</v>
       </c>
       <c r="D7">
         <v>0.9997420020639834</v>
       </c>
       <c r="E7">
-        <v>0.9962121212121212</v>
+        <v>0.9962121212121211</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -585,16 +585,16 @@
         <v>0.9499602642400357</v>
       </c>
       <c r="C8">
-        <v>0.8885892551001784</v>
+        <v>0.8885892551001782</v>
       </c>
       <c r="D8">
-        <v>0.8825791755193609</v>
+        <v>0.8825791755193606</v>
       </c>
       <c r="E8">
-        <v>0.9573397973855979</v>
+        <v>0.9573397973855978</v>
       </c>
       <c r="F8">
-        <v>0.9751236050998526</v>
+        <v>0.9751236050998527</v>
       </c>
       <c r="G8">
         <v>0.999952173705103</v>

--- a/output/cooc_nlp_crossValid.xlsx
+++ b/output/cooc_nlp_crossValid.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
-    <t>เมจิ</t>
+    <t>ซีพีเมจิ</t>
   </si>
   <si>
     <t>ดัชมิลล์</t>
@@ -429,22 +429,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8891967803235555</v>
+        <v>0.8468723180009827</v>
       </c>
       <c r="D2">
-        <v>0.9055329202971123</v>
+        <v>0.9082212259394804</v>
       </c>
       <c r="E2">
-        <v>0.9804374575830623</v>
+        <v>0.9916391919029586</v>
       </c>
       <c r="F2">
-        <v>0.9703541419246379</v>
+        <v>0.9686702786252365</v>
       </c>
       <c r="G2">
-        <v>0.9598291299241039</v>
+        <v>0.9383015729755689</v>
       </c>
       <c r="H2">
-        <v>0.9499602642400357</v>
+        <v>0.9464835541311212</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8891967803235555</v>
+        <v>0.8468723180009827</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8753280386778888</v>
+        <v>0.8299239563993518</v>
       </c>
       <c r="E3">
-        <v>0.9781066957578012</v>
+        <v>0.9857083709245444</v>
       </c>
       <c r="F3">
-        <v>0.9582653353236945</v>
+        <v>0.9368151149272347</v>
       </c>
       <c r="G3">
-        <v>0.9995446265938068</v>
+        <v>0.9427981271002849</v>
       </c>
       <c r="H3">
-        <v>0.8885892551001782</v>
+        <v>0.8445158998919706</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9055329202971123</v>
+        <v>0.9082212259394804</v>
       </c>
       <c r="C4">
-        <v>0.8753280386778888</v>
+        <v>0.8299239563993518</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.9982663026888146</v>
       </c>
       <c r="F4">
-        <v>0.9645295869598814</v>
+        <v>0.956556275153372</v>
       </c>
       <c r="G4">
-        <v>0.9997420020639834</v>
+        <v>0.9969192946786815</v>
       </c>
       <c r="H4">
-        <v>0.8825791755193606</v>
+        <v>0.8605544565294108</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9804374575830623</v>
+        <v>0.9916391919029586</v>
       </c>
       <c r="C5">
-        <v>0.9781066957578012</v>
+        <v>0.9857083709245444</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.9982663026888146</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.986535906439677</v>
+        <v>0.9632635812943077</v>
       </c>
       <c r="G5">
-        <v>0.9962121212121211</v>
+        <v>0.9874373580768931</v>
       </c>
       <c r="H5">
-        <v>0.9573397973855978</v>
+        <v>0.9848135119703718</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9703541419246379</v>
+        <v>0.9686702786252365</v>
       </c>
       <c r="C6">
-        <v>0.9582653353236945</v>
+        <v>0.9368151149272347</v>
       </c>
       <c r="D6">
-        <v>0.9645295869598814</v>
+        <v>0.956556275153372</v>
       </c>
       <c r="E6">
-        <v>0.986535906439677</v>
+        <v>0.9632635812943077</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.9551856011327119</v>
       </c>
       <c r="H6">
-        <v>0.9751236050998527</v>
+        <v>0.9627718019694732</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9598291299241039</v>
+        <v>0.9383015729755689</v>
       </c>
       <c r="C7">
-        <v>0.9995446265938068</v>
+        <v>0.9427981271002849</v>
       </c>
       <c r="D7">
-        <v>0.9997420020639834</v>
+        <v>0.9969192946786815</v>
       </c>
       <c r="E7">
-        <v>0.9962121212121211</v>
+        <v>0.9874373580768931</v>
       </c>
       <c r="F7">
+        <v>0.9551856011327119</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0.999952173705103</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9499602642400357</v>
+        <v>0.9464835541311212</v>
       </c>
       <c r="C8">
-        <v>0.8885892551001782</v>
+        <v>0.8445158998919706</v>
       </c>
       <c r="D8">
-        <v>0.8825791755193606</v>
+        <v>0.8605544565294108</v>
       </c>
       <c r="E8">
-        <v>0.9573397973855978</v>
+        <v>0.9848135119703718</v>
       </c>
       <c r="F8">
-        <v>0.9751236050998527</v>
+        <v>0.9627718019694732</v>
       </c>
       <c r="G8">
-        <v>0.999952173705103</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/output/cooc_nlp_crossValid.xlsx
+++ b/output/cooc_nlp_crossValid.xlsx
@@ -429,22 +429,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8468723180009827</v>
+        <v>0.8428727053908786</v>
       </c>
       <c r="D2">
-        <v>0.9082212259394804</v>
+        <v>0.9064693114803347</v>
       </c>
       <c r="E2">
-        <v>0.9916391919029586</v>
+        <v>0.9917495656072099</v>
       </c>
       <c r="F2">
-        <v>0.9686702786252365</v>
+        <v>0.9681495143388235</v>
       </c>
       <c r="G2">
-        <v>0.9383015729755689</v>
+        <v>0.9387075520025614</v>
       </c>
       <c r="H2">
-        <v>0.9464835541311212</v>
+        <v>0.9470732670332574</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8468723180009827</v>
+        <v>0.8428727053908786</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8299239563993518</v>
+        <v>0.8267619333416052</v>
       </c>
       <c r="E3">
-        <v>0.9857083709245444</v>
+        <v>0.9859193174791637</v>
       </c>
       <c r="F3">
-        <v>0.9368151149272347</v>
+        <v>0.9368251132494647</v>
       </c>
       <c r="G3">
-        <v>0.9427981271002849</v>
+        <v>0.9436331909382369</v>
       </c>
       <c r="H3">
-        <v>0.8445158998919706</v>
+        <v>0.8458668486568535</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9082212259394804</v>
+        <v>0.9064693114803347</v>
       </c>
       <c r="C4">
-        <v>0.8299239563993518</v>
+        <v>0.8267619333416052</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9982663026888146</v>
+        <v>0.9982903818181366</v>
       </c>
       <c r="F4">
-        <v>0.956556275153372</v>
+        <v>0.9557099623753923</v>
       </c>
       <c r="G4">
-        <v>0.9969192946786815</v>
+        <v>0.9969620822525886</v>
       </c>
       <c r="H4">
-        <v>0.8605544565294108</v>
+        <v>0.8617784241725529</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9916391919029586</v>
+        <v>0.9917495656072099</v>
       </c>
       <c r="C5">
-        <v>0.9857083709245444</v>
+        <v>0.9859193174791637</v>
       </c>
       <c r="D5">
-        <v>0.9982663026888146</v>
+        <v>0.9982903818181366</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9632635812943077</v>
+        <v>0.9641819917619501</v>
       </c>
       <c r="G5">
-        <v>0.9874373580768931</v>
+        <v>0.9744652969084789</v>
       </c>
       <c r="H5">
-        <v>0.9848135119703718</v>
+        <v>0.9850153257647855</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9686702786252365</v>
+        <v>0.9681495143388235</v>
       </c>
       <c r="C6">
-        <v>0.9368151149272347</v>
+        <v>0.9368251132494647</v>
       </c>
       <c r="D6">
-        <v>0.956556275153372</v>
+        <v>0.9557099623753923</v>
       </c>
       <c r="E6">
-        <v>0.9632635812943077</v>
+        <v>0.9641819917619501</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.9551856011327119</v>
+        <v>0.9562099302496785</v>
       </c>
       <c r="H6">
-        <v>0.9627718019694732</v>
+        <v>0.9607814469765</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,19 +556,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9383015729755689</v>
+        <v>0.9387075520025614</v>
       </c>
       <c r="C7">
-        <v>0.9427981271002849</v>
+        <v>0.9436331909382369</v>
       </c>
       <c r="D7">
-        <v>0.9969192946786815</v>
+        <v>0.9969620822525886</v>
       </c>
       <c r="E7">
-        <v>0.9874373580768931</v>
+        <v>0.9744652969084789</v>
       </c>
       <c r="F7">
-        <v>0.9551856011327119</v>
+        <v>0.9562099302496785</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9464835541311212</v>
+        <v>0.9470732670332574</v>
       </c>
       <c r="C8">
-        <v>0.8445158998919706</v>
+        <v>0.8458668486568535</v>
       </c>
       <c r="D8">
-        <v>0.8605544565294108</v>
+        <v>0.8617784241725529</v>
       </c>
       <c r="E8">
-        <v>0.9848135119703718</v>
+        <v>0.9850153257647855</v>
       </c>
       <c r="F8">
-        <v>0.9627718019694732</v>
+        <v>0.9607814469765</v>
       </c>
       <c r="G8">
         <v>1</v>
